--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H2">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I2">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J2">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0564121644462575</v>
+        <v>0.06577699999999999</v>
       </c>
       <c r="N2">
-        <v>0.0564121644462575</v>
+        <v>0.197331</v>
       </c>
       <c r="O2">
-        <v>0.001384397352588496</v>
+        <v>0.001323818738770273</v>
       </c>
       <c r="P2">
-        <v>0.001384397352588496</v>
+        <v>0.001341700266060269</v>
       </c>
       <c r="Q2">
-        <v>0.4114081351599223</v>
+        <v>0.5172383165266665</v>
       </c>
       <c r="R2">
-        <v>0.4114081351599223</v>
+        <v>4.655144848739999</v>
       </c>
       <c r="S2">
-        <v>0.00017817808884707</v>
+        <v>0.0001743089965911028</v>
       </c>
       <c r="T2">
-        <v>0.00017817808884707</v>
+        <v>0.0001847064070273945</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H3">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I3">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J3">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.162784625078124</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N3">
-        <v>0.162784625078124</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O3">
-        <v>0.003994858311365796</v>
+        <v>0.00455465669883772</v>
       </c>
       <c r="P3">
-        <v>0.003994858311365796</v>
+        <v>0.004616178881347755</v>
       </c>
       <c r="Q3">
-        <v>1.187171591331151</v>
+        <v>1.779581217782222</v>
       </c>
       <c r="R3">
-        <v>1.187171591331151</v>
+        <v>16.01623096004</v>
       </c>
       <c r="S3">
-        <v>0.0005141560100523884</v>
+        <v>0.0005997177829110026</v>
       </c>
       <c r="T3">
-        <v>0.0005141560100523884</v>
+        <v>0.0006354905316320339</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H4">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I4">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J4">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.2586820713155</v>
+        <v>20.95626266666667</v>
       </c>
       <c r="N4">
-        <v>14.2586820713155</v>
+        <v>62.868788</v>
       </c>
       <c r="O4">
-        <v>0.3499188854867597</v>
+        <v>0.4217628230646765</v>
       </c>
       <c r="P4">
-        <v>0.3499188854867597</v>
+        <v>0.4274597989494131</v>
       </c>
       <c r="Q4">
-        <v>103.9871073620417</v>
+        <v>164.7898508961689</v>
       </c>
       <c r="R4">
-        <v>103.9871073620417</v>
+        <v>1483.10865806552</v>
       </c>
       <c r="S4">
-        <v>0.04503611492101727</v>
+        <v>0.05553407905082712</v>
       </c>
       <c r="T4">
-        <v>0.04503611492101727</v>
+        <v>0.0588466482491194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H5">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I5">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J5">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.8167059502134</v>
+        <v>26.45234266666667</v>
       </c>
       <c r="N5">
-        <v>24.8167059502134</v>
+        <v>79.357028</v>
       </c>
       <c r="O5">
-        <v>0.6090208088039755</v>
+        <v>0.5323761634994868</v>
       </c>
       <c r="P5">
-        <v>0.6090208088039755</v>
+        <v>0.539567252896667</v>
       </c>
       <c r="Q5">
-        <v>180.9856937064712</v>
+        <v>208.0083492572356</v>
       </c>
       <c r="R5">
-        <v>180.9856937064712</v>
+        <v>1872.07514331512</v>
       </c>
       <c r="S5">
-        <v>0.07838368339688985</v>
+        <v>0.0700986865881795</v>
       </c>
       <c r="T5">
-        <v>0.07838368339688985</v>
+        <v>0.07428002449819007</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H6">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I6">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J6">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.45395052873198</v>
+        <v>1.986625</v>
       </c>
       <c r="N6">
-        <v>1.45395052873198</v>
+        <v>3.97325</v>
       </c>
       <c r="O6">
-        <v>0.03568105004531046</v>
+        <v>0.03998253799822876</v>
       </c>
       <c r="P6">
-        <v>0.03568105004531046</v>
+        <v>0.02701506900651171</v>
       </c>
       <c r="Q6">
-        <v>10.60351223024364</v>
+        <v>15.62185217583333</v>
       </c>
       <c r="R6">
-        <v>10.60351223024364</v>
+        <v>93.73111305499998</v>
       </c>
       <c r="S6">
-        <v>0.004592309638011733</v>
+        <v>0.005264554636921714</v>
       </c>
       <c r="T6">
-        <v>0.004592309638011733</v>
+        <v>0.003719054440111262</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H7">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I7">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J7">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0564121644462575</v>
+        <v>0.06577699999999999</v>
       </c>
       <c r="N7">
-        <v>0.0564121644462575</v>
+        <v>0.197331</v>
       </c>
       <c r="O7">
-        <v>0.001384397352588496</v>
+        <v>0.001323818738770273</v>
       </c>
       <c r="P7">
-        <v>0.001384397352588496</v>
+        <v>0.001341700266060269</v>
       </c>
       <c r="Q7">
-        <v>0.7710438111097371</v>
+        <v>0.9951913855803332</v>
       </c>
       <c r="R7">
-        <v>0.7710438111097371</v>
+        <v>8.956722470222999</v>
       </c>
       <c r="S7">
-        <v>0.0003339338747579475</v>
+        <v>0.0003353788887905673</v>
       </c>
       <c r="T7">
-        <v>0.0003339338747579475</v>
+        <v>0.0003553840062923507</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H8">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I8">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J8">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.162784625078124</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N8">
-        <v>0.162784625078124</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O8">
-        <v>0.003994858311365796</v>
+        <v>0.00455465669883772</v>
       </c>
       <c r="P8">
-        <v>0.003994858311365796</v>
+        <v>0.004616178881347755</v>
       </c>
       <c r="Q8">
-        <v>2.224947029463488</v>
+        <v>3.423999810706444</v>
       </c>
       <c r="R8">
-        <v>2.224947029463488</v>
+        <v>30.815998296358</v>
       </c>
       <c r="S8">
-        <v>0.0009636095536654065</v>
+        <v>0.001153885843841184</v>
       </c>
       <c r="T8">
-        <v>0.0009636095536654065</v>
+        <v>0.001222714332041294</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H9">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I9">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J9">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.2586820713155</v>
+        <v>20.95626266666667</v>
       </c>
       <c r="N9">
-        <v>14.2586820713155</v>
+        <v>62.868788</v>
       </c>
       <c r="O9">
-        <v>0.3499188854867597</v>
+        <v>0.4217628230646765</v>
       </c>
       <c r="P9">
-        <v>0.3499188854867597</v>
+        <v>0.4274597989494131</v>
       </c>
       <c r="Q9">
-        <v>194.8882598919417</v>
+        <v>317.0635948709338</v>
       </c>
       <c r="R9">
-        <v>194.8882598919417</v>
+        <v>2853.572353838404</v>
       </c>
       <c r="S9">
-        <v>0.08440479105445753</v>
+        <v>0.10685023771759</v>
       </c>
       <c r="T9">
-        <v>0.08440479105445753</v>
+        <v>0.1132237800963076</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H10">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I10">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J10">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.8167059502134</v>
+        <v>26.45234266666667</v>
       </c>
       <c r="N10">
-        <v>24.8167059502134</v>
+        <v>79.357028</v>
       </c>
       <c r="O10">
-        <v>0.6090208088039755</v>
+        <v>0.5323761634994868</v>
       </c>
       <c r="P10">
-        <v>0.6090208088039755</v>
+        <v>0.539567252896667</v>
       </c>
       <c r="Q10">
-        <v>339.195769615815</v>
+        <v>400.2180633091471</v>
       </c>
       <c r="R10">
-        <v>339.195769615815</v>
+        <v>3601.962569782324</v>
       </c>
       <c r="S10">
-        <v>0.1469034003220764</v>
+        <v>0.134873242766529</v>
       </c>
       <c r="T10">
-        <v>0.1469034003220764</v>
+        <v>0.1429183379098786</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H11">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I11">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J11">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.45395052873198</v>
+        <v>1.986625</v>
       </c>
       <c r="N11">
-        <v>1.45395052873198</v>
+        <v>3.97325</v>
       </c>
       <c r="O11">
-        <v>0.03568105004531046</v>
+        <v>0.03998253799822876</v>
       </c>
       <c r="P11">
-        <v>0.03568105004531046</v>
+        <v>0.02701506900651171</v>
       </c>
       <c r="Q11">
-        <v>19.87265632940799</v>
+        <v>30.05719455704167</v>
       </c>
       <c r="R11">
-        <v>19.87265632940799</v>
+        <v>180.34316734225</v>
       </c>
       <c r="S11">
-        <v>0.008606713437283245</v>
+        <v>0.01012925619811729</v>
       </c>
       <c r="T11">
-        <v>0.008606713437283245</v>
+        <v>0.007155639524459323</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H12">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I12">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J12">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0564121644462575</v>
+        <v>0.06577699999999999</v>
       </c>
       <c r="N12">
-        <v>0.0564121644462575</v>
+        <v>0.197331</v>
       </c>
       <c r="O12">
-        <v>0.001384397352588496</v>
+        <v>0.001323818738770273</v>
       </c>
       <c r="P12">
-        <v>0.001384397352588496</v>
+        <v>0.001341700266060269</v>
       </c>
       <c r="Q12">
-        <v>0.7699241429385422</v>
+        <v>0.9460285814226665</v>
       </c>
       <c r="R12">
-        <v>0.7699241429385422</v>
+        <v>8.514257232803999</v>
       </c>
       <c r="S12">
-        <v>0.0003334489540239205</v>
+        <v>0.0003188110538322576</v>
       </c>
       <c r="T12">
-        <v>0.0003334489540239205</v>
+        <v>0.0003378279114996597</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H13">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I13">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J13">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.162784625078124</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N13">
-        <v>0.162784625078124</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O13">
-        <v>0.003994858311365796</v>
+        <v>0.00455465669883772</v>
       </c>
       <c r="P13">
-        <v>0.003994858311365796</v>
+        <v>0.004616178881347755</v>
       </c>
       <c r="Q13">
-        <v>2.221716081577531</v>
+        <v>3.254853016864888</v>
       </c>
       <c r="R13">
-        <v>2.221716081577531</v>
+        <v>29.293677151784</v>
       </c>
       <c r="S13">
-        <v>0.0009622102519251517</v>
+        <v>0.001096883477680239</v>
       </c>
       <c r="T13">
-        <v>0.0009622102519251517</v>
+        <v>0.00116231181437695</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H14">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I14">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J14">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2586820713155</v>
+        <v>20.95626266666667</v>
       </c>
       <c r="N14">
-        <v>14.2586820713155</v>
+        <v>62.868788</v>
       </c>
       <c r="O14">
-        <v>0.3499188854867597</v>
+        <v>0.4217628230646765</v>
       </c>
       <c r="P14">
-        <v>0.3499188854867597</v>
+        <v>0.4274597989494131</v>
       </c>
       <c r="Q14">
-        <v>194.605253688667</v>
+        <v>301.4005418682436</v>
       </c>
       <c r="R14">
-        <v>194.605253688667</v>
+        <v>2712.604876814192</v>
       </c>
       <c r="S14">
-        <v>0.08428222297638162</v>
+        <v>0.1015717984271949</v>
       </c>
       <c r="T14">
-        <v>0.08428222297638162</v>
+        <v>0.1076304855727426</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H15">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I15">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J15">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.8167059502134</v>
+        <v>26.45234266666667</v>
       </c>
       <c r="N15">
-        <v>24.8167059502134</v>
+        <v>79.357028</v>
       </c>
       <c r="O15">
-        <v>0.6090208088039755</v>
+        <v>0.5323761634994868</v>
       </c>
       <c r="P15">
-        <v>0.6090208088039755</v>
+        <v>0.539567252896667</v>
       </c>
       <c r="Q15">
-        <v>338.7032078423197</v>
+        <v>380.4471503451502</v>
       </c>
       <c r="R15">
-        <v>338.7032078423197</v>
+        <v>3424.024353106352</v>
       </c>
       <c r="S15">
-        <v>0.1466900751397574</v>
+        <v>0.1282104571794395</v>
       </c>
       <c r="T15">
-        <v>0.1466900751397574</v>
+        <v>0.1358581217956632</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H16">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I16">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J16">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.45395052873198</v>
+        <v>1.986625</v>
       </c>
       <c r="N16">
-        <v>1.45395052873198</v>
+        <v>3.97325</v>
       </c>
       <c r="O16">
-        <v>0.03568105004531046</v>
+        <v>0.03998253799822876</v>
       </c>
       <c r="P16">
-        <v>0.03568105004531046</v>
+        <v>0.02701506900651171</v>
       </c>
       <c r="Q16">
-        <v>19.84379833139474</v>
+        <v>28.57235858383333</v>
       </c>
       <c r="R16">
-        <v>19.84379833139474</v>
+        <v>171.434151503</v>
       </c>
       <c r="S16">
-        <v>0.008594215232958833</v>
+        <v>0.009628867382512257</v>
       </c>
       <c r="T16">
-        <v>0.008594215232958833</v>
+        <v>0.006802148417461135</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H17">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I17">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J17">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.0564121644462575</v>
+        <v>0.06577699999999999</v>
       </c>
       <c r="N17">
-        <v>0.0564121644462575</v>
+        <v>0.197331</v>
       </c>
       <c r="O17">
-        <v>0.001384397352588496</v>
+        <v>0.001323818738770273</v>
       </c>
       <c r="P17">
-        <v>0.001384397352588496</v>
+        <v>0.001341700266060269</v>
       </c>
       <c r="Q17">
-        <v>0.8057118629899224</v>
+        <v>0.9566343991256664</v>
       </c>
       <c r="R17">
-        <v>0.8057118629899224</v>
+        <v>8.609709592130999</v>
       </c>
       <c r="S17">
-        <v>0.0003489483742297708</v>
+        <v>0.0003223852079170754</v>
       </c>
       <c r="T17">
-        <v>0.0003489483742297708</v>
+        <v>0.0003416152613902545</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H18">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I18">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J18">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.162784625078124</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N18">
-        <v>0.162784625078124</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O18">
-        <v>0.003994858311365796</v>
+        <v>0.00455465669883772</v>
       </c>
       <c r="P18">
-        <v>0.003994858311365796</v>
+        <v>0.004616178881347755</v>
       </c>
       <c r="Q18">
-        <v>2.324986194471618</v>
+        <v>3.291342799969555</v>
       </c>
       <c r="R18">
-        <v>2.324986194471618</v>
+        <v>29.62208519972599</v>
       </c>
       <c r="S18">
-        <v>0.001006935841377428</v>
+        <v>0.001109180512288025</v>
       </c>
       <c r="T18">
-        <v>0.001006935841377428</v>
+        <v>0.001175342358548023</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H19">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I19">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J19">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.2586820713155</v>
+        <v>20.95626266666667</v>
       </c>
       <c r="N19">
-        <v>14.2586820713155</v>
+        <v>62.868788</v>
       </c>
       <c r="O19">
-        <v>0.3499188854867597</v>
+        <v>0.4217628230646765</v>
       </c>
       <c r="P19">
-        <v>0.3499188854867597</v>
+        <v>0.4274597989494131</v>
       </c>
       <c r="Q19">
-        <v>203.6509218930134</v>
+        <v>304.7795087043542</v>
       </c>
       <c r="R19">
-        <v>203.6509218930134</v>
+        <v>2743.015578339188</v>
       </c>
       <c r="S19">
-        <v>0.08819984087270406</v>
+        <v>0.1027105081861164</v>
       </c>
       <c r="T19">
-        <v>0.08819984087270406</v>
+        <v>0.1088371185769519</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H20">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I20">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J20">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.8167059502134</v>
+        <v>26.45234266666667</v>
       </c>
       <c r="N20">
-        <v>24.8167059502134</v>
+        <v>79.357028</v>
       </c>
       <c r="O20">
-        <v>0.6090208088039755</v>
+        <v>0.5323761634994868</v>
       </c>
       <c r="P20">
-        <v>0.6090208088039755</v>
+        <v>0.539567252896667</v>
       </c>
       <c r="Q20">
-        <v>354.4468569978092</v>
+        <v>384.7122996243809</v>
       </c>
       <c r="R20">
-        <v>354.4468569978092</v>
+        <v>3462.410696619428</v>
       </c>
       <c r="S20">
-        <v>0.1535085434155816</v>
+        <v>0.1296478098801566</v>
       </c>
       <c r="T20">
-        <v>0.1535085434155816</v>
+        <v>0.1373812115854769</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H21">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I21">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J21">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.45395052873198</v>
+        <v>1.986625</v>
       </c>
       <c r="N21">
-        <v>1.45395052873198</v>
+        <v>3.97325</v>
       </c>
       <c r="O21">
-        <v>0.03568105004531046</v>
+        <v>0.03998253799822876</v>
       </c>
       <c r="P21">
-        <v>0.03568105004531046</v>
+        <v>0.02701506900651171</v>
       </c>
       <c r="Q21">
-        <v>20.76618049846062</v>
+        <v>28.89268001220833</v>
       </c>
       <c r="R21">
-        <v>20.76618049846062</v>
+        <v>173.35608007325</v>
       </c>
       <c r="S21">
-        <v>0.008993692729072356</v>
+        <v>0.009736815508129892</v>
       </c>
       <c r="T21">
-        <v>0.008993692729072356</v>
+        <v>0.006878406521625232</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H22">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I22">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J22">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.0564121644462575</v>
+        <v>0.06577699999999999</v>
       </c>
       <c r="N22">
-        <v>0.0564121644462575</v>
+        <v>0.197331</v>
       </c>
       <c r="O22">
-        <v>0.001384397352588496</v>
+        <v>0.001323818738770273</v>
       </c>
       <c r="P22">
-        <v>0.001384397352588496</v>
+        <v>0.001341700266060269</v>
       </c>
       <c r="Q22">
-        <v>0.4384461269029968</v>
+        <v>0.5131599561585</v>
       </c>
       <c r="R22">
-        <v>0.4384461269029968</v>
+        <v>3.078959736951</v>
       </c>
       <c r="S22">
-        <v>0.0001898880607297874</v>
+        <v>0.0001729345916392697</v>
       </c>
       <c r="T22">
-        <v>0.0001898880607297874</v>
+        <v>0.000122166679850609</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H23">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I23">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J23">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.162784625078124</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N23">
-        <v>0.162784625078124</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O23">
-        <v>0.003994858311365796</v>
+        <v>0.00455465669883772</v>
       </c>
       <c r="P23">
-        <v>0.003994858311365796</v>
+        <v>0.004616178881347755</v>
       </c>
       <c r="Q23">
-        <v>1.265193227124879</v>
+        <v>1.765549439241</v>
       </c>
       <c r="R23">
-        <v>1.265193227124879</v>
+        <v>10.593296635446</v>
       </c>
       <c r="S23">
-        <v>0.0005479466543454205</v>
+        <v>0.0005949890821172691</v>
       </c>
       <c r="T23">
-        <v>0.0005479466543454205</v>
+        <v>0.0004203198447494543</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H24">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I24">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J24">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.2586820713155</v>
+        <v>20.95626266666667</v>
       </c>
       <c r="N24">
-        <v>14.2586820713155</v>
+        <v>62.868788</v>
       </c>
       <c r="O24">
-        <v>0.3499188854867597</v>
+        <v>0.4217628230646765</v>
       </c>
       <c r="P24">
-        <v>0.3499188854867597</v>
+        <v>0.4274597989494131</v>
       </c>
       <c r="Q24">
-        <v>110.8212030202331</v>
+        <v>163.490503234758</v>
       </c>
       <c r="R24">
-        <v>110.8212030202331</v>
+        <v>980.943019408548</v>
       </c>
       <c r="S24">
-        <v>0.04799591566219921</v>
+        <v>0.05509619968294806</v>
       </c>
       <c r="T24">
-        <v>0.04799591566219921</v>
+        <v>0.03892176645429157</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H25">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I25">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J25">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.8167059502134</v>
+        <v>26.45234266666667</v>
       </c>
       <c r="N25">
-        <v>24.8167059502134</v>
+        <v>79.357028</v>
       </c>
       <c r="O25">
-        <v>0.6090208088039755</v>
+        <v>0.5323761634994868</v>
       </c>
       <c r="P25">
-        <v>0.6090208088039755</v>
+        <v>0.539567252896667</v>
       </c>
       <c r="Q25">
-        <v>192.8801830805035</v>
+        <v>206.368229063598</v>
       </c>
       <c r="R25">
-        <v>192.8801830805035</v>
+        <v>1238.209374381588</v>
       </c>
       <c r="S25">
-        <v>0.08353510652967026</v>
+        <v>0.06954596708518224</v>
       </c>
       <c r="T25">
-        <v>0.08353510652967026</v>
+        <v>0.04912955710745809</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H26">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I26">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J26">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.45395052873198</v>
+        <v>1.986625</v>
       </c>
       <c r="N26">
-        <v>1.45395052873198</v>
+        <v>3.97325</v>
       </c>
       <c r="O26">
-        <v>0.03568105004531046</v>
+        <v>0.03998253799822876</v>
       </c>
       <c r="P26">
-        <v>0.03568105004531046</v>
+        <v>0.02701506900651171</v>
       </c>
       <c r="Q26">
-        <v>11.30038147425475</v>
+        <v>15.4986757970625</v>
       </c>
       <c r="R26">
-        <v>11.30038147425475</v>
+        <v>61.99470318824999</v>
       </c>
       <c r="S26">
-        <v>0.004894119007984294</v>
+        <v>0.005223044272547612</v>
       </c>
       <c r="T26">
-        <v>0.004894119007984294</v>
+        <v>0.002459820102854757</v>
       </c>
     </row>
   </sheetData>
